--- a/Ubah Kata - Sandi - ATS-22.xlsx
+++ b/Ubah Kata - Sandi - ATS-22.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieto\git\ACC-Seamless-ACCOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hari Sapto\git\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8265" windowHeight="5325"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8268" windowHeight="5328"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>oldPassword</t>
   </si>
@@ -74,9 +74,6 @@
     <t>newPasswordWrong</t>
   </si>
   <si>
-    <t>Application11</t>
-  </si>
-  <si>
     <t>App1!</t>
   </si>
   <si>
@@ -84,12 +81,30 @@
   </si>
   <si>
     <t>success</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>Application1</t>
+  </si>
+  <si>
+    <t>oldNnewPasswordEmpty</t>
+  </si>
+  <si>
+    <t>allPasswordEmpty</t>
+  </si>
+  <si>
+    <t>newNconfPasswordEmpty</t>
+  </si>
+  <si>
+    <t>oldNconfPasswordEmpty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,21 +416,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -440,90 +455,139 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D14" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Ubah Kata - Sandi - ATS-22.xlsx
+++ b/Ubah Kata - Sandi - ATS-22.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hari Sapto\git\ACC-ACCOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieto\git\ACC-Seamless-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8268" windowHeight="5328"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8265" windowHeight="5325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>oldPassword</t>
   </si>
@@ -74,6 +74,9 @@
     <t>newPasswordWrong</t>
   </si>
   <si>
+    <t>Application11</t>
+  </si>
+  <si>
     <t>App1!</t>
   </si>
   <si>
@@ -81,30 +84,12 @@
   </si>
   <si>
     <t>success</t>
-  </si>
-  <si>
-    <t>same</t>
-  </si>
-  <si>
-    <t>Application1</t>
-  </si>
-  <si>
-    <t>oldNnewPasswordEmpty</t>
-  </si>
-  <si>
-    <t>allPasswordEmpty</t>
-  </si>
-  <si>
-    <t>newNconfPasswordEmpty</t>
-  </si>
-  <si>
-    <t>oldNconfPasswordEmpty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,21 +401,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -455,139 +440,90 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Ubah Kata - Sandi - ATS-22.xlsx
+++ b/Ubah Kata - Sandi - ATS-22.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieto\git\ACC-Seamless-ACCOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieto\git\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>oldPassword</t>
   </si>
@@ -74,16 +75,10 @@
     <t>newPasswordWrong</t>
   </si>
   <si>
-    <t>Application11</t>
-  </si>
-  <si>
-    <t>App1!</t>
-  </si>
-  <si>
-    <t>newPasswordShort</t>
-  </si>
-  <si>
     <t>success</t>
+  </si>
+  <si>
+    <t>Password1!</t>
   </si>
 </sst>
 </file>
@@ -401,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +495,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -509,21 +504,7 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
